--- a/biology/Zoologie/Aegaeobuthus_gibbosus/Aegaeobuthus_gibbosus.xlsx
+++ b/biology/Zoologie/Aegaeobuthus_gibbosus/Aegaeobuthus_gibbosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegaeobuthus gibbosus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Grèce, en Albanie, en Macédoine du Nord, en Bulgarie et en Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Grèce, en Albanie, en Macédoine du Nord, en Bulgarie et en Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus gibbosus par Brullé en 1832. Elle est placée dans le genre Mesobuthus par Vachon en 1950[2] puis dans le genre Aegaeobuthus par Kovařík en 2019[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthus gibbosus par Brullé en 1832. Elle est placée dans le genre Mesobuthus par Vachon en 1950 puis dans le genre Aegaeobuthus par Kovařík en 2019.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brullé, 1832 : « Des animaux articulés. Scorpionides. » Expédition scientifique de Morée, section des sciences physiques, Zoologie, Paris, vol. 3, no 1, p. 57-60 (texte intégral).</t>
         </is>
